--- a/data/positive_signals/Indirectly connected (A-X-B) - Carbamazepine - Bullous eruptions.xlsx
+++ b/data/positive_signals/Indirectly connected (A-X-B) - Carbamazepine - Bullous eruptions.xlsx
@@ -173,28 +173,70 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>5127262</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>3763631</t>
+  </si>
+  <si>
+    <t>bullous eruption</t>
+  </si>
+  <si>
+    <t>94142938</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>54094019</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>13916755</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>83758809</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>83759180</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>113483617</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
     <t>3762211</t>
   </si>
   <si>
     <t>bulla</t>
   </si>
   <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>3763631</t>
-  </si>
-  <si>
-    <t>bullous eruption</t>
-  </si>
-  <si>
-    <t>80033767</t>
+    <t>13847218</t>
   </si>
   <si>
     <t>indicates</t>
   </si>
   <si>
-    <t>203449045</t>
+    <t>137260534</t>
   </si>
   <si>
     <t>is parent of</t>
@@ -209,52 +251,214 @@
     <t>Living Beings</t>
   </si>
   <si>
-    <t>129919108</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>117896937</t>
+    <t>63525824</t>
+  </si>
+  <si>
+    <t>57021114</t>
+  </si>
+  <si>
+    <t>is not administered to</t>
+  </si>
+  <si>
+    <t>51278392</t>
+  </si>
+  <si>
+    <t>51685883</t>
   </si>
   <si>
     <t>is administered to</t>
   </si>
   <si>
-    <t>123447789</t>
-  </si>
-  <si>
-    <t>is not administered to</t>
-  </si>
-  <si>
-    <t>117467698</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>117459011</t>
+    <t>51266807</t>
   </si>
   <si>
     <t>is process of</t>
   </si>
   <si>
+    <t>2718483</t>
+  </si>
+  <si>
+    <t>lupus erythematosus, systemic</t>
+  </si>
+  <si>
+    <t>58399229</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>97625591</t>
+  </si>
+  <si>
+    <t>13899493</t>
+  </si>
+  <si>
+    <t>68296895</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
     <t>5308239</t>
   </si>
   <si>
     <t>woman</t>
   </si>
   <si>
-    <t>183526440</t>
-  </si>
-  <si>
-    <t>127464512</t>
-  </si>
-  <si>
-    <t>120694782</t>
-  </si>
-  <si>
-    <t>120547375</t>
+    <t>117320559</t>
+  </si>
+  <si>
+    <t>61080774</t>
+  </si>
+  <si>
+    <t>54361369</t>
+  </si>
+  <si>
+    <t>54216638</t>
+  </si>
+  <si>
+    <t>3113988</t>
+  </si>
+  <si>
+    <t>hypersensitivity disease</t>
+  </si>
+  <si>
+    <t>55091049</t>
+  </si>
+  <si>
+    <t>116859123</t>
+  </si>
+  <si>
+    <t>2517682</t>
+  </si>
+  <si>
+    <t>boys</t>
+  </si>
+  <si>
+    <t>65220738</t>
+  </si>
+  <si>
+    <t>93296498</t>
+  </si>
+  <si>
+    <t>58830242</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>86154124</t>
+  </si>
+  <si>
+    <t>56578672</t>
+  </si>
+  <si>
+    <t>60375379</t>
+  </si>
+  <si>
+    <t>99578394</t>
+  </si>
+  <si>
+    <t>684679</t>
+  </si>
+  <si>
+    <t>infant, newborn</t>
+  </si>
+  <si>
+    <t>56580443</t>
+  </si>
+  <si>
+    <t>55517824</t>
+  </si>
+  <si>
+    <t>2518307</t>
+  </si>
+  <si>
+    <t>girls</t>
+  </si>
+  <si>
+    <t>57820963</t>
+  </si>
+  <si>
+    <t>66442537</t>
+  </si>
+  <si>
+    <t>301179</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>51662300</t>
+  </si>
+  <si>
+    <t>52826993</t>
+  </si>
+  <si>
+    <t>113605030</t>
+  </si>
+  <si>
+    <t>69987932</t>
+  </si>
+  <si>
+    <t>4048321</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>117051286</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>58031670</t>
+  </si>
+  <si>
+    <t>4034949</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>65032002</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>127281809</t>
+  </si>
+  <si>
+    <t>650553</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>56571169</t>
+  </si>
+  <si>
+    <t>78122755</t>
+  </si>
+  <si>
+    <t>837644</t>
+  </si>
+  <si>
+    <t>lupus erythematosus</t>
+  </si>
+  <si>
+    <t>61075603</t>
+  </si>
+  <si>
+    <t>66026027</t>
   </si>
   <si>
     <t>5648228</t>
@@ -266,124 +470,94 @@
     <t>Procedures</t>
   </si>
   <si>
-    <t>126494633</t>
+    <t>81593453</t>
+  </si>
+  <si>
+    <t>is lower than</t>
+  </si>
+  <si>
+    <t>51335641</t>
+  </si>
+  <si>
+    <t>82734209</t>
+  </si>
+  <si>
+    <t>does not use</t>
+  </si>
+  <si>
+    <t>105134740</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>76990777</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>60092666</t>
   </si>
   <si>
     <t>is compared with</t>
   </si>
   <si>
-    <t>172268252</t>
-  </si>
-  <si>
-    <t>is lower than</t>
-  </si>
-  <si>
-    <t>171249792</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>117534928</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>149110344</t>
-  </si>
-  <si>
-    <t>does not use</t>
-  </si>
-  <si>
-    <t>123898997</t>
-  </si>
-  <si>
-    <t>148027109</t>
-  </si>
-  <si>
-    <t>143376944</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>132508592</t>
-  </si>
-  <si>
-    <t>3113988</t>
-  </si>
-  <si>
-    <t>hypersensitivity disease</t>
-  </si>
-  <si>
-    <t>121480719</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>183056067</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>2517682</t>
-  </si>
-  <si>
-    <t>boys</t>
-  </si>
-  <si>
-    <t>159586309</t>
-  </si>
-  <si>
-    <t>131621893</t>
-  </si>
-  <si>
-    <t>125271467</t>
-  </si>
-  <si>
-    <t>590091</t>
-  </si>
-  <si>
-    <t>male population group</t>
-  </si>
-  <si>
-    <t>152569207</t>
-  </si>
-  <si>
-    <t>123085713</t>
-  </si>
-  <si>
-    <t>126766077</t>
-  </si>
-  <si>
-    <t>165773837</t>
-  </si>
-  <si>
-    <t>684679</t>
-  </si>
-  <si>
-    <t>infant, newborn</t>
-  </si>
-  <si>
-    <t>122975542</t>
-  </si>
-  <si>
-    <t>122056665</t>
-  </si>
-  <si>
-    <t>2518307</t>
-  </si>
-  <si>
-    <t>girls</t>
-  </si>
-  <si>
-    <t>124195302</t>
-  </si>
-  <si>
-    <t>132833551</t>
+    <t>106160448</t>
+  </si>
+  <si>
+    <t>57509521</t>
+  </si>
+  <si>
+    <t>66163822</t>
+  </si>
+  <si>
+    <t>837528</t>
+  </si>
+  <si>
+    <t>captopril</t>
+  </si>
+  <si>
+    <t>96585206</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>96635694</t>
+  </si>
+  <si>
+    <t>74231788</t>
+  </si>
+  <si>
+    <t>63829</t>
+  </si>
+  <si>
+    <t>enzyme-linked immunosorbent assay</t>
+  </si>
+  <si>
+    <t>104454384</t>
+  </si>
+  <si>
+    <t>124711841</t>
+  </si>
+  <si>
+    <t>diagnoses</t>
+  </si>
+  <si>
+    <t>5131040</t>
+  </si>
+  <si>
+    <t>pulmonary edema</t>
+  </si>
+  <si>
+    <t>75231834</t>
+  </si>
+  <si>
+    <t>70686107</t>
+  </si>
+  <si>
+    <t>55291627</t>
   </si>
   <si>
     <t>4033983</t>
@@ -392,256 +566,82 @@
     <t>pharmaceutical preparations</t>
   </si>
   <si>
-    <t>119901886</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>123648369</t>
-  </si>
-  <si>
-    <t>179284158</t>
+    <t>77814473</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>125363296</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>52548215</t>
+  </si>
+  <si>
+    <t>65582000</t>
+  </si>
+  <si>
+    <t>53576069</t>
+  </si>
+  <si>
+    <t>67130159</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>57916088</t>
+  </si>
+  <si>
+    <t>71309172</t>
+  </si>
+  <si>
+    <t>57221639</t>
+  </si>
+  <si>
+    <t>87110969</t>
+  </si>
+  <si>
+    <t>is not higher than</t>
+  </si>
+  <si>
+    <t>51370991</t>
+  </si>
+  <si>
+    <t>57221406</t>
+  </si>
+  <si>
+    <t>117748363</t>
+  </si>
+  <si>
+    <t>51278288</t>
+  </si>
+  <si>
+    <t>63304412</t>
+  </si>
+  <si>
+    <t>113085325</t>
   </si>
   <si>
     <t>does not coexist with</t>
   </si>
   <si>
-    <t>120247773</t>
-  </si>
-  <si>
-    <t>122074683</t>
-  </si>
-  <si>
-    <t>173765381</t>
-  </si>
-  <si>
-    <t>117467341</t>
-  </si>
-  <si>
-    <t>123648492</t>
-  </si>
-  <si>
-    <t>130544893</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>130544970</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>153378448</t>
-  </si>
-  <si>
-    <t>is not higher than</t>
-  </si>
-  <si>
-    <t>144268411</t>
-  </si>
-  <si>
-    <t>137722363</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>117557185</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>129686699</t>
-  </si>
-  <si>
-    <t>118780705</t>
-  </si>
-  <si>
-    <t>183947566</t>
-  </si>
-  <si>
-    <t>191503474</t>
-  </si>
-  <si>
-    <t>120402892</t>
-  </si>
-  <si>
-    <t>124404157</t>
-  </si>
-  <si>
-    <t>142812784</t>
-  </si>
-  <si>
-    <t>301179</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>119128313</t>
-  </si>
-  <si>
-    <t>179830054</t>
-  </si>
-  <si>
-    <t>117886474</t>
-  </si>
-  <si>
-    <t>136332181</t>
-  </si>
-  <si>
-    <t>4048321</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>183258176</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>124432552</t>
-  </si>
-  <si>
-    <t>4034949</t>
-  </si>
-  <si>
-    <t>diagnosis</t>
-  </si>
-  <si>
-    <t>131391846</t>
-  </si>
-  <si>
-    <t>193498222</t>
-  </si>
-  <si>
-    <t>2718483</t>
-  </si>
-  <si>
-    <t>lupus erythematosus, systemic</t>
-  </si>
-  <si>
-    <t>124787697</t>
-  </si>
-  <si>
-    <t>80108672</t>
-  </si>
-  <si>
-    <t>163832494</t>
-  </si>
-  <si>
-    <t>134745063</t>
-  </si>
-  <si>
-    <t>5127262</t>
-  </si>
-  <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>120443814</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>80117752</t>
-  </si>
-  <si>
-    <t>160256468</t>
-  </si>
-  <si>
-    <t>150132469</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>150132073</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>179706364</t>
-  </si>
-  <si>
-    <t>650553</t>
-  </si>
-  <si>
-    <t>infant</t>
-  </si>
-  <si>
-    <t>122952246</t>
-  </si>
-  <si>
-    <t>144464660</t>
-  </si>
-  <si>
-    <t>837644</t>
-  </si>
-  <si>
-    <t>lupus erythematosus</t>
-  </si>
-  <si>
-    <t>124076247</t>
-  </si>
-  <si>
-    <t>132419822</t>
-  </si>
-  <si>
-    <t>837528</t>
-  </si>
-  <si>
-    <t>captopril</t>
-  </si>
-  <si>
-    <t>162818262</t>
-  </si>
-  <si>
-    <t>162869722</t>
-  </si>
-  <si>
-    <t>140613064</t>
-  </si>
-  <si>
-    <t>63829</t>
-  </si>
-  <si>
-    <t>enzyme-linked immunosorbent assay</t>
-  </si>
-  <si>
-    <t>170665754</t>
-  </si>
-  <si>
-    <t>190903160</t>
-  </si>
-  <si>
-    <t>diagnoses</t>
-  </si>
-  <si>
-    <t>5131040</t>
-  </si>
-  <si>
-    <t>pulmonary edema</t>
-  </si>
-  <si>
-    <t>141623729</t>
-  </si>
-  <si>
-    <t>137097582</t>
-  </si>
-  <si>
-    <t>121833297</t>
+    <t>107547168</t>
+  </si>
+  <si>
+    <t>59272402</t>
+  </si>
+  <si>
+    <t>53998639</t>
+  </si>
+  <si>
+    <t>53915454</t>
+  </si>
+  <si>
+    <t>76350720</t>
   </si>
   <si>
     <t>4028517</t>
@@ -650,10 +650,10 @@
     <t>kidney failure, chronic</t>
   </si>
   <si>
-    <t>148556217</t>
-  </si>
-  <si>
-    <t>123657506</t>
+    <t>84054180</t>
+  </si>
+  <si>
+    <t>57273052</t>
   </si>
 </sst>
 </file>
@@ -858,7 +858,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>190.0</v>
+        <v>237.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -899,10 +899,34 @@
       <c r="N2" t="s">
         <v>61</v>
       </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45.0</v>
+        <v>190.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -914,13 +938,13 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -932,39 +956,21 @@
         <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -976,13 +982,13 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -994,33 +1000,39 @@
         <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="O4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="R4" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="S4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20.0</v>
+        <v>34.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1032,13 +1044,13 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
@@ -1050,63 +1062,33 @@
         <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="Q5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R5" t="s">
-        <v>91</v>
-      </c>
-      <c r="S5" t="s">
-        <v>92</v>
-      </c>
-      <c r="T5" t="s">
-        <v>93</v>
-      </c>
-      <c r="U5" t="s">
         <v>94</v>
-      </c>
-      <c r="V5" t="s">
-        <v>85</v>
-      </c>
-      <c r="W5" t="s">
-        <v>95</v>
-      </c>
-      <c r="X5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13.0</v>
+        <v>24.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1118,13 +1100,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -1136,21 +1118,33 @@
         <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N6" t="s">
-        <v>104</v>
+        <v>63</v>
+      </c>
+      <c r="O6" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -1162,13 +1156,13 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -1180,27 +1174,21 @@
         <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P7" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1212,13 +1200,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -1230,33 +1218,27 @@
         <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>115</v>
-      </c>
-      <c r="R8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1268,13 +1250,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -1286,16 +1268,28 @@
         <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="O9" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>115</v>
+      </c>
+      <c r="R9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -1312,13 +1306,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -1330,21 +1324,21 @@
         <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -1356,13 +1350,13 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -1374,130 +1368,16 @@
         <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="M11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" t="s">
-        <v>129</v>
-      </c>
-      <c r="P11" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>131</v>
-      </c>
-      <c r="R11" t="s">
-        <v>127</v>
-      </c>
-      <c r="S11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T11" t="s">
-        <v>89</v>
-      </c>
-      <c r="U11" t="s">
-        <v>133</v>
-      </c>
-      <c r="V11" t="s">
-        <v>97</v>
-      </c>
-      <c r="W11" t="s">
-        <v>134</v>
-      </c>
-      <c r="X11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -1514,13 +1394,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -1532,28 +1412,28 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M12" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="O12" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="P12" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="Q12" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="R12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -1570,13 +1450,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -1588,16 +1468,16 @@
         <v>55</v>
       </c>
       <c r="K13" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="N13" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -1614,10 +1494,10 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
         <v>55</v>
@@ -1632,21 +1512,21 @@
         <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -1658,13 +1538,13 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
@@ -1676,33 +1556,21 @@
         <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="M15" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s">
-        <v>59</v>
-      </c>
-      <c r="O15" t="s">
-        <v>174</v>
-      </c>
-      <c r="P15" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>175</v>
-      </c>
-      <c r="R15" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -1714,10 +1582,10 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
@@ -1732,45 +1600,21 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="M16" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s">
-        <v>72</v>
-      </c>
-      <c r="O16" t="s">
-        <v>181</v>
-      </c>
-      <c r="P16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>182</v>
-      </c>
-      <c r="R16" t="s">
-        <v>183</v>
-      </c>
-      <c r="S16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T16" t="s">
-        <v>185</v>
-      </c>
-      <c r="U16" t="s">
-        <v>186</v>
-      </c>
-      <c r="V16" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -1782,13 +1626,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -1800,21 +1644,63 @@
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="N17" t="s">
-        <v>74</v>
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>155</v>
+      </c>
+      <c r="P17" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>157</v>
+      </c>
+      <c r="R17" t="s">
+        <v>158</v>
+      </c>
+      <c r="S17" t="s">
+        <v>159</v>
+      </c>
+      <c r="T17" t="s">
+        <v>160</v>
+      </c>
+      <c r="U17" t="s">
+        <v>161</v>
+      </c>
+      <c r="V17" t="s">
+        <v>162</v>
+      </c>
+      <c r="W17" t="s">
+        <v>163</v>
+      </c>
+      <c r="X17" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -1826,13 +1712,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -1844,16 +1730,22 @@
         <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="N18" t="s">
-        <v>104</v>
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -1870,13 +1762,13 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
@@ -1888,22 +1780,16 @@
         <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="N19" t="s">
-        <v>127</v>
-      </c>
-      <c r="O19" t="s">
-        <v>199</v>
-      </c>
-      <c r="P19" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
@@ -1920,13 +1806,13 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -1938,16 +1824,22 @@
         <v>55</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="M20" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>63</v>
+      </c>
+      <c r="O20" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21">
@@ -1964,13 +1856,13 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
@@ -1982,22 +1874,130 @@
         <v>55</v>
       </c>
       <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" t="s">
+        <v>186</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>188</v>
+      </c>
+      <c r="P21" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>189</v>
+      </c>
+      <c r="R21" t="s">
+        <v>185</v>
+      </c>
+      <c r="S21" t="s">
+        <v>190</v>
+      </c>
+      <c r="T21" t="s">
+        <v>169</v>
+      </c>
+      <c r="U21" t="s">
+        <v>191</v>
+      </c>
+      <c r="V21" t="s">
+        <v>192</v>
+      </c>
+      <c r="W21" t="s">
+        <v>193</v>
+      </c>
+      <c r="X21" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU21" t="s">
         <v>207</v>
       </c>
-      <c r="L21" t="s">
-        <v>183</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="AV21" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW21" t="s">
         <v>208</v>
       </c>
-      <c r="N21" t="s">
-        <v>72</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="AX21" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY21" t="s">
         <v>209</v>
       </c>
-      <c r="P21" t="s">
-        <v>104</v>
+      <c r="AZ21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -2035,13 +2035,13 @@
         <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M22" t="s">
         <v>213</v>
       </c>
       <c r="N22" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
